--- a/pred_ohlcv/54_21/2020-01-20 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-680116.4038000003</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-680190.4038000003</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-680303.9146000004</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-702652.1523000004</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-548565.1029000004</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-548637.1029000004</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-548565.1029000004</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-548494.1029000004</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-621456.3021000004</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-621383.3021000004</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-621310.3021000004</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-621310.3021000004</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-621390.0926000004</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-687066.1806000004</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-687140.5096000005</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-711017.1806000004</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-632198.1806000004</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-581907.1806000004</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-567433.5664000005</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-561577.5718000004</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-566663.0432000004</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-557663.0432000004</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-557347.7685000005</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-547290.4115000004</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-547806.0997000004</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1270132.9622</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1342381.9815</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-773850.4733000004</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-700630.4733000004</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-896682.4875000004</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-901701.4875000004</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3718979.7684</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3567500.7749</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3560127.6405</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3482825.3485</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-3353218.5168</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-3172136.5342</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3201850.5342</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3206191.0624</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3175970.2096</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3456020.9222</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3351214.8711</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3769552.5222</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3770452.5222</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3847270.507300001</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3849270.507300001</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3849570.507300001</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3939163.6006</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-4012045.6006</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-4075562.416000001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4395899.781</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-4281562.416</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4238039.5248</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-4032423.4903</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-4033824.0564</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4046573.6661</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4983600.6866</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4572412.136</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-4426784.1359</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>151528.3947974857</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1415688.727102514</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1472184.070202514</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1484337.070202514</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1484337.070202514</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1534959.36373851</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1662287.65373851</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1664959.36373851</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1664959.36363851</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1664959.36363851</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1561485.86463851</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1617590.83773851</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1857833.42493851</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1401688.29243851</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1401688.29243851</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1596298.644153119</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1759329.371753119</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1648308.444553119</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1648308.444553119</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1571045.265653119</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1646949.036753119</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1696949.129853119</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1583069.015053119</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1598188.951553119</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1480355.952953119</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3408278.078553119</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4351224.930953119</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4357224.930953119</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4503840.768653119</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4503840.768653119</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4773215.400653119</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4881734.090053119</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5446818.731153118</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4830439.579853118</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4830439.579853118</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4826439.579853118</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4956114.271353118</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4956114.271353118</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4956514.271753118</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4956647.926253119</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4963277.926253119</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-5042395.768053118</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-5042395.768053118</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-14148561.54845312</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-11842964.10435312</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-11755772.49675312</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-11761790.49675312</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-11729600.83995312</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-11734818.34005312</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-11734818.34005312</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 VET ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-621456.3021000004</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-621383.3021000004</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-621310.3021000004</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-621390.0926000004</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-567433.5664000005</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-558989.8999000004</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-561577.5718000004</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-548547.9367000004</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-547290.4115000004</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-547806.0997000004</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1270132.9622</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-896682.4875000004</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3567500.7749</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3560127.6405</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3482825.3485</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-3353218.5168</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-3172136.5342</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-3201850.5342</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3206191.0624</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3175970.2096</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-3456020.9222</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3351214.8711</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-3769552.5222</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-3770452.5222</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-3847270.507300001</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-3849270.507300001</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3849570.507300001</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3939163.6006</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-4012045.6006</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-4075562.416000001</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-4395899.781</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-4281562.416</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4238039.5248</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-4032423.4903</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-4033824.0564</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4046573.6661</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4983600.6866</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4572412.136</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-4337896.1359</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-4426784.1359</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>377141.6798974857</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>406676.6798974857</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>406676.6798974857</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>329858.6947974857</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>151528.3947974857</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>145339.4197974857</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1415688.727102514</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1472184.070202514</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1484337.070202514</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1494569.036802514</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-1534959.36373851</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-1534959.36373851</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1662287.65373851</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1664959.36373851</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1664959.36363851</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1664959.36363851</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1561629.86463851</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1561485.86463851</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1591252.86463851</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1602826.86463851</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1602755.69023851</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1401688.29243851</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1401688.29243851</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1343688.29243851</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1343952.994153119</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-1696949.129853119</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1583069.015053119</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-1598188.951553119</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-1480355.952953119</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-2450446.258753119</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2559560.859153119</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-3408278.078553119</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-4351224.930953119</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4357224.930953119</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-4503840.768653119</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-4503840.768653119</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-4773215.400653119</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-4881734.090053119</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-4816113.489253119</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5446818.731153118</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-4830439.579853118</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-4830439.579853118</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-4826439.579853118</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-4956114.271353118</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-4956114.271353118</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-4956514.271753118</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-4956647.926253119</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-4963277.926253119</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-5042395.768053118</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-5042395.768053118</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-11842964.10435312</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-11761790.49675312</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-11734818.34005312</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-11784818.34005312</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
